--- a/FashionShop/src/산출물/쇼핑몰DB.xlsx
+++ b/FashionShop/src/산출물/쇼핑몰DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F133D1F3-AC35-44A6-98D3-CB6153064206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8AC4E-5753-4693-97B2-53BA2581BAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{239C4E1C-79D8-481D-A521-AFBDBCCFDCE3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -360,13 +360,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +431,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C318EA7-A007-4846-948D-C1AF8CF010C3}">
   <dimension ref="B3:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -765,19 +780,20 @@
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="J3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
@@ -786,9 +802,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -800,8 +816,8 @@
       <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="20"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
     </row>
@@ -841,6 +857,9 @@
       </c>
       <c r="O5" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -874,6 +893,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -906,6 +926,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -938,6 +959,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -970,6 +992,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F10" s="1">
@@ -993,6 +1016,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F11" s="1">
@@ -1016,6 +1040,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
@@ -1044,6 +1069,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -1076,6 +1102,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -1108,6 +1135,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
@@ -1140,6 +1168,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -1172,8 +1201,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1204,8 +1234,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1230,8 +1261,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F19" s="1">
         <v>14</v>
       </c>
@@ -1253,8 +1285,9 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -1276,8 +1309,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F21" s="1">
         <v>16</v>
       </c>
@@ -1299,20 +1333,21 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="F23" s="15" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="F23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -1324,7 +1359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -1364,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1398,7 +1433,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -1412,7 +1447,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>41</v>
       </c>
@@ -1424,7 +1459,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
